--- a/Mifos Automation Excels/Client/3125-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3125-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>repaymenttransactiondate</t>
+  </si>
+  <si>
+    <t>repaymenttransactionamount</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -236,6 +239,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,6 +569,14 @@
         <v>42036</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="12">
+        <v>937.72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -575,7 +587,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A7" sqref="A7:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,10 +661,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B4" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
@@ -661,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F4" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -823,16 +835,16 @@
         <v>50.96</v>
       </c>
       <c r="I3" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>987.72</v>
+        <v>937.72</v>
       </c>
       <c r="L3" s="6">
-        <v>987.72</v>
+        <v>937.72</v>
       </c>
       <c r="M3" s="6">
         <v>0</v>
@@ -869,13 +881,13 @@
         <v>38.32</v>
       </c>
       <c r="I4" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J4" s="6">
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -890,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -915,13 +927,13 @@
         <v>42.43</v>
       </c>
       <c r="I5" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>887.72</v>
+        <v>937.72</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -936,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6">
-        <v>887.72</v>
+        <v>937.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1088,7 +1100,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A4" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1152,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1152,7 +1164,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="6">
-        <v>987.72</v>
+        <v>937.72</v>
       </c>
       <c r="F2" s="6">
         <v>836.76</v>
@@ -1161,7 +1173,7 @@
         <v>50.96</v>
       </c>
       <c r="H2" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I2" s="6">
         <v>0</v>
@@ -1174,7 +1186,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/3125-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3125-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +710,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,13 +927,13 @@
         <v>42.43</v>
       </c>
       <c r="I5" s="6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>937.72</v>
+        <v>887.72</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6">
-        <v>937.72</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/3125-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3125-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment1.xlsx
@@ -587,7 +587,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +710,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +808,6 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -850,9 +849,6 @@
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
@@ -898,9 +894,6 @@
       <c r="N4" s="6">
         <v>0</v>
       </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
       <c r="P4" s="6">
         <v>887.72</v>
       </c>
@@ -927,13 +920,13 @@
         <v>42.43</v>
       </c>
       <c r="I5" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>887.72</v>
+        <v>937.72</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -944,11 +937,8 @@
       <c r="N5" s="6">
         <v>0</v>
       </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
       <c r="P5" s="6">
-        <v>887.72</v>
+        <v>937.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -990,9 +980,6 @@
       <c r="N6" s="6">
         <v>0</v>
       </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
       <c r="P6" s="6">
         <v>887.72</v>
       </c>
@@ -1036,9 +1023,6 @@
       <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
       <c r="P7" s="6">
         <v>887.72</v>
       </c>
@@ -1080,9 +1064,6 @@
         <v>0</v>
       </c>
       <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="6">
@@ -1100,7 +1081,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:XFD6"/>
+      <selection activeCell="A2" sqref="A2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1133,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1186,7 +1167,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/3125-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3125-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment1.xlsx
@@ -587,7 +587,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +726,7 @@
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>

--- a/Mifos Automation Excels/Client/3125-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3125-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -707,10 +707,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,12 +728,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.42578125" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,17 +774,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -808,9 +810,10 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -848,14 +851,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -891,14 +895,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -934,14 +939,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>937.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -977,14 +983,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1020,14 +1027,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1063,10 +1071,11 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>741.06</v>
       </c>
     </row>
@@ -1080,7 +1089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:L3"/>
     </sheetView>
   </sheetViews>
